--- a/barnehage/kgdata.xlsx
+++ b/barnehage/kgdata.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="B1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,91 +437,31 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>foresatt_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>foresatt_navn</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>foresatt_adresse</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>foresatt_tlfnr</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>foresatt_pnr</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Kristen gate 10</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Daniel</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>45870912</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>050598</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Kristen gate 10</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Fredrik</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -534,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,136 +483,157 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>barnehage_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>barnehage_navn</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>barnehage_antall_plasser</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>barnehage_ledige_plasser</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Sunshine Preschool</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>50</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Happy Days Nursery</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>25</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>123 Learning Center</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>35</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>ABC Kindergarten</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>12</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Tiny Tots Academy</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>15</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Giggles and Grins Childcare</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Playful Pals Daycare</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>40</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -687,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="B1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,33 +657,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>barn_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>barn_pnr</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>050505</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>50505</v>
       </c>
     </row>
   </sheetData>
@@ -736,7 +679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="B1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,127 +688,65 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>sok_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>foresatt_1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>foresatt_2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>barn_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>fr_barnevern</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>fr_sykd_familie</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>fr_sykd_barn</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>fr_annet</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>barnehager_prioritert</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>sosken__i_barnehagen</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>tidspunkt_oppstart</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>brutto_inntekt</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2024-12-06</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>300000</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>3, 5</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/barnehage/kgdata.xlsx
+++ b/barnehage/kgdata.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="foresatt" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,20 +13,42 @@
     <sheet name="soknad" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Cambria"/>
+      <charset val="1"/>
+      <family val="0"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -40,7 +62,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -53,21 +75,44 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -140,41 +185,41 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -182,243 +227,135 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:shade val="51000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:shade val="93000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="94000"/>
-                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
-                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
-                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -428,7 +365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:F1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,29 +374,79 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>foresatt_id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>foresatt_navn</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>foresatt_adresse</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>foresatt_tlfnr</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>foresatt_pnr</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Trine</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>gate 55</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>95009044</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>010198</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Truls</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Holumveien 88</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>90569843</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>050598</t>
         </is>
       </c>
     </row>
@@ -474,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,158 +470,185 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>barnehage_id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>barnehage_navn</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>barnehage_antall_plasser</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>barnehage_ledige_plasser</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Falkåsen Barnehage</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Grasmyr naturbarnehage</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Sunshine Preschool</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nustad Barnehage</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rønholdt Barnehage</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sunby Barnehage</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Uksodden Barnehage</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Stokkevannet Barnehage</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>45</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Grashoppa Barnehage</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>35</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Solstua Barnehage</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>24</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tiriltoppen Barnehage</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>50</v>
       </c>
-      <c r="E2" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Happy Days Nursery</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>25</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>123 Learning Center</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>35</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ABC Kindergarten</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>12</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Tiny Tots Academy</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>15</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Giggles and Grins Childcare</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>10</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Playful Pals Daycare</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>40</v>
-      </c>
-      <c r="E8" t="n">
-        <v>6</v>
+      <c r="D11" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -648,7 +662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:C1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,14 +671,24 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>barn_id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>barn_pnr</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010120</t>
         </is>
       </c>
     </row>
@@ -679,7 +703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:M1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,64 +712,102 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>sok_id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>foresatt_1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>foresatt_2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>barn_1</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>fr_barnevern</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>fr_sykd_familie</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>fr_sykd_barn</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>fr_annet</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>barnehager_prioritert</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>sosken__i_barnehagen</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>tidspunkt_oppstart</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>brutto_inntekt</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2024-12-06</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1500000</t>
         </is>
       </c>
     </row>
